--- a/data/airline_company.xlsx
+++ b/data/airline_company.xlsx
@@ -1,18 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="555" windowWidth="17940" windowHeight="12210"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+  <si>
+    <t>Airline</t>
+  </si>
+  <si>
+    <t>Airline (in Turkish)</t>
+  </si>
+  <si>
+    <t>ICAO</t>
+  </si>
+  <si>
+    <t>IATA</t>
+  </si>
+  <si>
+    <t>Callsign</t>
+  </si>
+  <si>
+    <t>Commenced
+operations</t>
+  </si>
+  <si>
+    <t>Anadolujet</t>
+  </si>
+  <si>
+    <t>Anadolujet Havayolları</t>
+  </si>
+  <si>
+    <t>AJA</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>TURKISH</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>Corendon Airlines</t>
+  </si>
+  <si>
+    <t>Corendon Havayolları</t>
+  </si>
+  <si>
+    <t>CAI</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>CORENDON</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>Onur Air</t>
+  </si>
+  <si>
+    <t>Onur Air Taşımacılık</t>
+  </si>
+  <si>
+    <t>OHY</t>
+  </si>
+  <si>
+    <t>8Q</t>
+  </si>
+  <si>
+    <t>ONUR AIR</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>Pegasus Airlines</t>
+  </si>
+  <si>
+    <t>Pegasus Hava Taşımacılığı</t>
+  </si>
+  <si>
+    <t>PGT</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>SUNTURK</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>SunExpress</t>
+  </si>
+  <si>
+    <t>Güneş Ekspres Havacılık</t>
+  </si>
+  <si>
+    <t>SXS</t>
+  </si>
+  <si>
+    <t>XQ</t>
+  </si>
+  <si>
+    <t>SUNEXPRESS</t>
+  </si>
+  <si>
+    <t>Turkish Airlines</t>
+  </si>
+  <si>
+    <t>Türk Hava Yolları</t>
+  </si>
+  <si>
+    <t>THY</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -376,173 +501,155 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet 1"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" xml:space="preserve">
-      <c r="A1" t="str">
-        <v>Airline</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Airline (in Turkish)</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D1" t="str">
-        <v>ICAO</v>
-      </c>
-      <c r="E1" t="str">
-        <v>IATA</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Callsign</v>
-      </c>
-      <c r="G1" t="str" xml:space="preserve">
-        <v xml:space="preserve">Commenced
-operations</v>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Anadolujet</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Anadolujet Havayolları</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v>AJA</v>
-      </c>
-      <c r="E2" t="str">
-        <v>TK</v>
-      </c>
-      <c r="F2" t="str">
-        <v>TURKISH</v>
-      </c>
-      <c r="G2" t="str">
-        <v>2008</v>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Corendon Airlines</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Corendon Havayolları</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v>CAI</v>
-      </c>
-      <c r="E3" t="str">
-        <v>XC</v>
-      </c>
-      <c r="F3" t="str">
-        <v>CORENDON</v>
-      </c>
-      <c r="G3" t="str">
-        <v>2005</v>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Onur Air</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Onur Air Taşımacılık</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v>OHY</v>
-      </c>
-      <c r="E4" t="str">
-        <v>8Q</v>
-      </c>
-      <c r="F4" t="str">
-        <v>ONUR AIR</v>
-      </c>
-      <c r="G4" t="str">
-        <v>1992</v>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Pegasus Airlines</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pegasus Hava Taşımacılığı</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v>PGT</v>
-      </c>
-      <c r="E5" t="str">
-        <v>PC</v>
-      </c>
-      <c r="F5" t="str">
-        <v>SUNTURK</v>
-      </c>
-      <c r="G5" t="str">
-        <v>1990</v>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>SunExpress</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Güneş Ekspres Havacılık</v>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v>SXS</v>
-      </c>
-      <c r="E6" t="str">
-        <v>XQ</v>
-      </c>
-      <c r="F6" t="str">
-        <v>SUNEXPRESS</v>
-      </c>
-      <c r="G6" t="str">
-        <v>1990</v>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Turkish Airlines</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Türk Hava Yolları</v>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v>THY</v>
-      </c>
-      <c r="E7" t="str">
-        <v>TK</v>
-      </c>
-      <c r="F7" t="str">
-        <v>TURKISH</v>
-      </c>
-      <c r="G7" t="str">
-        <v>1933</v>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>